--- a/Team-Data/2008-09/1-8-2008-09.xlsx
+++ b/Team-Data/2008-09/1-8-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -756,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>16</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -798,13 +865,13 @@
         <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -813,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.778</v>
+        <v>0.784</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
         <v>21.5</v>
       </c>
       <c r="P3" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V3" t="n">
         <v>16.2</v>
@@ -908,25 +975,25 @@
         <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -953,31 +1020,31 @@
         <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
         <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1001,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1141,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1165,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.412</v>
+        <v>0.429</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,79 +1297,79 @@
         <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.801</v>
+        <v>0.799</v>
       </c>
       <c r="R5" t="n">
         <v>11.7</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
         <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18</v>
       </c>
-      <c r="AG5" t="n">
-        <v>20</v>
-      </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
@@ -1311,58 +1378,58 @@
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
         <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
         <v>15</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -1394,88 +1461,88 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.848</v>
+        <v>0.824</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J6" t="n">
-        <v>78.8</v>
+        <v>78.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
         <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="W6" t="n">
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>101.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
@@ -1487,28 +1554,28 @@
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
         <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>15</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>7</v>
@@ -1535,13 +1602,13 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.629</v>
+        <v>0.618</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,28 +1661,28 @@
         <v>37.7</v>
       </c>
       <c r="J7" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.451</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.803</v>
+        <v>0.806</v>
       </c>
       <c r="R7" t="n">
         <v>11.8</v>
@@ -1627,37 +1694,37 @@
         <v>44.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1666,10 +1733,10 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1678,13 +1745,13 @@
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>27</v>
@@ -1702,22 +1769,22 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX7" t="n">
         <v>9</v>
       </c>
-      <c r="AV7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>8</v>
-      </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>21</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
@@ -2033,13 +2100,13 @@
         <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>26</v>
@@ -2063,31 +2130,31 @@
         <v>21</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT9" t="n">
         <v>19</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
         <v>26</v>
@@ -2248,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -2394,13 +2461,13 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>27</v>
@@ -2427,13 +2494,13 @@
         <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -2588,22 +2655,22 @@
         <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
         <v>9</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>9</v>
@@ -2624,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.229</v>
+        <v>0.235</v>
       </c>
       <c r="H13" t="n">
         <v>48.9</v>
@@ -2686,40 +2753,40 @@
         <v>35.3</v>
       </c>
       <c r="J13" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L13" t="n">
         <v>5.1</v>
       </c>
       <c r="M13" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.315</v>
+        <v>0.311</v>
       </c>
       <c r="O13" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="P13" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R13" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S13" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T13" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U13" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.7</v>
@@ -2731,22 +2798,22 @@
         <v>6.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.7</v>
+        <v>-6.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2764,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2779,22 +2846,22 @@
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
@@ -2809,10 +2876,10 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
         <v>24</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.824</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J14" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.471</v>
@@ -2877,31 +2944,31 @@
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.371</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
         <v>14</v>
@@ -2910,34 +2977,34 @@
         <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -2952,31 +3019,31 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2988,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3143,10 +3210,10 @@
         <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3307,7 +3374,7 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3337,10 +3404,10 @@
         <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU16" t="n">
         <v>25</v>
@@ -3355,7 +3422,7 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -3396,85 +3463,85 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.472</v>
+        <v>0.459</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L17" t="n">
         <v>5.2</v>
       </c>
       <c r="M17" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R17" t="n">
         <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>43.2</v>
+        <v>42.9</v>
       </c>
       <c r="U17" t="n">
         <v>20.9</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W17" t="n">
         <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3489,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -3516,13 +3583,13 @@
         <v>10</v>
       </c>
       <c r="AR17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3531,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3741,7 @@
         <v>14</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3698,10 +3765,10 @@
         <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3859,16 +3926,16 @@
         <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
         <v>6</v>
@@ -3910,7 +3977,7 @@
         <v>12</v>
       </c>
       <c r="BB19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4090,7 @@
         <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4074,13 +4141,13 @@
         <v>24</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
         <v>3</v>
@@ -4095,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="BC20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -4124,19 +4191,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0.382</v>
+        <v>0.394</v>
       </c>
       <c r="H21" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I21" t="n">
         <v>37.7</v>
@@ -4145,40 +4212,40 @@
         <v>86.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L21" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M21" t="n">
         <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P21" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q21" t="n">
         <v>0.801</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
         <v>31.6</v>
       </c>
       <c r="T21" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V21" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W21" t="n">
         <v>7.5</v>
@@ -4187,28 +4254,28 @@
         <v>2.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>103.6</v>
+        <v>103.9</v>
       </c>
       <c r="AC21" t="n">
         <v>-3.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
@@ -4217,7 +4284,7 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4256,10 +4323,10 @@
         <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,7 +4338,7 @@
         <v>7</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4423,25 +4490,25 @@
         <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
         <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT22" t="n">
         <v>16</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>7.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4584,10 +4651,10 @@
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4623,7 +4690,7 @@
         <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>5</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4821,7 @@
         <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>18</v>
@@ -4763,7 +4830,7 @@
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
@@ -4793,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4808,13 +4875,13 @@
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -4993,10 +5060,10 @@
         <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
         <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.618</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
         <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.2</v>
+        <v>97.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5145,7 +5212,7 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
@@ -5160,25 +5227,25 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>18</v>
@@ -5187,7 +5254,7 @@
         <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5330,7 +5397,7 @@
         <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -5398,46 +5465,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H28" t="n">
         <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J28" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K28" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.406</v>
+        <v>0.407</v>
       </c>
       <c r="O28" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="P28" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R28" t="n">
         <v>8.300000000000001</v>
@@ -5449,34 +5516,34 @@
         <v>40</v>
       </c>
       <c r="U28" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V28" t="n">
         <v>12.2</v>
       </c>
       <c r="W28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5494,7 +5561,7 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5527,7 +5594,7 @@
         <v>25</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5536,10 +5603,10 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>18</v>
       </c>
       <c r="AF29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG29" t="n">
         <v>20</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>18</v>
@@ -5676,10 +5743,10 @@
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
@@ -5709,7 +5776,7 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5730,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5879,16 +5946,16 @@
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5897,7 +5964,7 @@
         <v>27</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
@@ -5915,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -6058,7 +6125,7 @@
         <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6082,22 +6149,22 @@
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB31" t="n">
         <v>28</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-8-2008-09</t>
+          <t>2009-01-08</t>
         </is>
       </c>
     </row>
